--- a/Makeover1/mrsd_2019LabourForce_T5.xlsx
+++ b/Makeover1/mrsd_2019LabourForce_T5.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9E4DA9-8190-401B-9900-AD39E17B10CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047FB437-EBF9-4B2F-A388-C16E58651256}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -528,6 +528,13 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="180"/>
     </xf>
@@ -554,13 +561,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" textRotation="180"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -967,458 +967,458 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="10.15">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="59">
         <v>11.8</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="59">
         <v>15.4</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="59">
         <v>12.3</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="59">
         <v>12.4</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="59">
         <v>11.8</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="59">
         <v>12.3</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="59">
         <v>15.8</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="59">
         <v>15.3</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="59">
         <v>14.2</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="59">
         <v>15.2</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="59">
         <v>15.1</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="10.15">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="59">
         <v>63.5</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="59">
         <v>65.8</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="59">
         <v>62.8</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="59">
         <v>63.6</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="59">
         <v>61.7</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="59">
         <v>61.8</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="59">
         <v>65.3</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="59">
         <v>62.3</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="59">
         <v>62.2</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="59">
         <v>61.3</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="59">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="10.15">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="59">
         <v>89.3</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="59">
         <v>89.4</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="59">
         <v>89.2</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="59">
         <v>88.3</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="59">
         <v>88.5</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="59">
         <v>89</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="59">
         <v>90.3</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="59">
         <v>90.3</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="59">
         <v>90.2</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="59">
         <v>90</v>
       </c>
-      <c r="M6" s="68">
+      <c r="M6" s="59">
         <v>90.1</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="10.15">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="59">
         <v>88.3</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="59">
         <v>89</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="59">
         <v>88.6</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="59">
         <v>89.8</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="59">
         <v>90.1</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="59">
         <v>89.9</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="59">
         <v>90.2</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="59">
         <v>90.8</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="59">
         <v>91.8</v>
       </c>
-      <c r="L7" s="68">
+      <c r="L7" s="59">
         <v>91</v>
       </c>
-      <c r="M7" s="68">
+      <c r="M7" s="59">
         <v>92.3</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="10.15">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="59">
         <v>85.8</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="59">
         <v>86.2</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="59">
         <v>87.3</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="59">
         <v>88</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="59">
         <v>88</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="59">
         <v>88.8</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="59">
         <v>89.1</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="59">
         <v>89.7</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="59">
         <v>89.8</v>
       </c>
-      <c r="L8" s="68">
+      <c r="L8" s="59">
         <v>89</v>
       </c>
-      <c r="M8" s="68">
+      <c r="M8" s="59">
         <v>89.6</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="10.15">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="59">
         <v>84.4</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="59">
         <v>84.4</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="59">
         <v>84.9</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="59">
         <v>85.4</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="59">
         <v>85.7</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="59">
         <v>87.1</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="59">
         <v>87.6</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="59">
         <v>88.2</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="59">
         <v>87.7</v>
       </c>
-      <c r="L9" s="68">
+      <c r="L9" s="59">
         <v>88.8</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="59">
         <v>88.7</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="10.15">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="59">
         <v>82.1</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="59">
         <v>82.4</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="59">
         <v>83.7</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="59">
         <v>84.4</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="59">
         <v>84.5</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="59">
         <v>84.7</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="59">
         <v>85.9</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="59">
         <v>86.3</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="59">
         <v>86.8</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="59">
         <v>86.5</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="59">
         <v>87.9</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.15">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="59">
         <v>78.099999999999994</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="59">
         <v>78.599999999999994</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="59">
         <v>79.7</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="59">
         <v>79.5</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="59">
         <v>80</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="59">
         <v>81.8</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="59">
         <v>82.4</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="59">
         <v>81.400000000000006</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="59">
         <v>82.8</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="59">
         <v>82</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="59">
         <v>82.3</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.15">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="59">
         <v>68.400000000000006</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="59">
         <v>68.3</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="59">
         <v>70.2</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="59">
         <v>72.400000000000006</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="59">
         <v>73.2</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="59">
         <v>74.3</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="59">
         <v>75.5</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="59">
         <v>75.8</v>
       </c>
-      <c r="K12" s="68">
+      <c r="K12" s="59">
         <v>74.900000000000006</v>
       </c>
-      <c r="L12" s="68">
+      <c r="L12" s="59">
         <v>75.099999999999994</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="59">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="10.15">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="59">
         <v>50.6</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="59">
         <v>51</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="59">
         <v>54.7</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="59">
         <v>58.1</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="59">
         <v>59.7</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="59">
         <v>61.2</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="59">
         <v>62.4</v>
       </c>
-      <c r="J13" s="68">
+      <c r="J13" s="59">
         <v>62.8</v>
       </c>
-      <c r="K13" s="68">
+      <c r="K13" s="59">
         <v>63.6</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L13" s="59">
         <v>62.2</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="59">
         <v>63.9</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="10.15">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="59">
         <v>29.9</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="59">
         <v>30.9</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="59">
         <v>36.200000000000003</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="59">
         <v>38.6</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="59">
         <v>40.200000000000003</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="59">
         <v>41.2</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="59">
         <v>42.2</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="59">
         <v>43.2</v>
       </c>
-      <c r="K14" s="68">
+      <c r="K14" s="59">
         <v>43.4</v>
       </c>
-      <c r="L14" s="68">
+      <c r="L14" s="59">
         <v>45.3</v>
       </c>
-      <c r="M14" s="68">
+      <c r="M14" s="59">
         <v>46.1</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="10.15">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="59">
         <v>10.5</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="59">
         <v>11</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="59">
         <v>12.5</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="59">
         <v>13.1</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="59">
         <v>14.4</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="59">
         <v>15.3</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="59">
         <v>14.9</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="59">
         <v>15</v>
       </c>
-      <c r="K15" s="68">
+      <c r="K15" s="59">
         <v>16.2</v>
       </c>
-      <c r="L15" s="68">
+      <c r="L15" s="59">
         <v>17</v>
       </c>
-      <c r="M15" s="68">
+      <c r="M15" s="59">
         <v>17.600000000000001</v>
       </c>
     </row>
@@ -1458,134 +1458,134 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="10.15">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="59">
         <v>1.6</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="59">
         <v>1.6</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="10.15">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="59">
         <v>7.4</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="59">
         <v>6.4</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="10.15">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="59">
         <v>11.1</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="59">
         <v>10.3</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="10.15">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="59">
         <v>12.5</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="59">
         <v>10.9</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="10.15">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="59">
         <v>13.5</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="59">
         <v>11.5</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="10.15">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="59">
         <v>13.3</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="59">
         <v>11.6</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="10.15">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="59">
         <v>13.2</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="59">
         <v>12.2</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="10.15">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="59">
         <v>11.7</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="59">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="10.15">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="59">
         <v>8</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="59">
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="10.15">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="59">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="59">
         <v>7.3</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="10.15">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="59">
         <v>1.8</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="59">
         <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="10.15">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="59">
         <v>1.2</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="59">
         <v>2.7</v>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AABF0E-4AF4-48C1-84B2-F49E3ED7BC0A}">
   <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9.75"/>
   <cols>
@@ -1626,206 +1626,206 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="10.15">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="59">
         <v>1.6</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="59">
         <v>1.6</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="59">
         <v>11.8</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="59">
         <v>15.1</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="10.15">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="59">
         <v>7.4</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="59">
         <v>6.4</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="59">
         <v>63.5</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="59">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="10.15">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="59">
         <v>11.1</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="59">
         <v>10.3</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="59">
         <v>89.3</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="59">
         <v>90.1</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="10.15">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="59">
         <v>12.5</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="59">
         <v>10.9</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="59">
         <v>88.3</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="59">
         <v>92.3</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="10.15">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="59">
         <v>13.5</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="59">
         <v>11.5</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="59">
         <v>85.8</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="59">
         <v>89.6</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="10.15">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="59">
         <v>13.3</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="59">
         <v>11.6</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="59">
         <v>84.4</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="59">
         <v>88.7</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="10.15">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="59">
         <v>13.2</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="59">
         <v>12.2</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="59">
         <v>82.1</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="59">
         <v>87.9</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="10.15">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="59">
         <v>11.7</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="59">
         <v>11</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="59">
         <v>78.099999999999994</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="59">
         <v>82.3</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="10.15">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="59">
         <v>8</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="59">
         <v>10.199999999999999</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="59">
         <v>68.400000000000006</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="59">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="10.15">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="59">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="59">
         <v>7.3</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="59">
         <v>50.6</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="59">
         <v>63.9</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="10.15">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="59">
         <v>1.8</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="59">
         <v>4.5</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="59">
         <v>29.9</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="59">
         <v>46.1</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="10.15">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="59">
         <v>1.2</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="59">
         <v>2.7</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="59">
         <v>10.5</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="59">
         <v>17.600000000000001</v>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
   <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1"/>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="11.65"/>
   <cols>
@@ -1889,93 +1889,93 @@
   <sheetData>
     <row r="1" spans="1:26" s="50" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="38"/>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
     </row>
     <row r="2" spans="1:26" s="49" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="38"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
     </row>
     <row r="3" spans="1:26" s="49" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="38"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="A4" s="38"/>
@@ -2009,55 +2009,55 @@
     </row>
     <row r="5" spans="1:26" s="46" customFormat="1" ht="34.5" customHeight="1">
       <c r="A5" s="38"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63" t="s">
+      <c r="H5" s="65"/>
+      <c r="I5" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63" t="s">
+      <c r="J5" s="65"/>
+      <c r="K5" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63" t="s">
+      <c r="L5" s="65"/>
+      <c r="M5" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63" t="s">
+      <c r="N5" s="65"/>
+      <c r="O5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63" t="s">
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63" t="s">
+      <c r="R5" s="65"/>
+      <c r="S5" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63" t="s">
+      <c r="T5" s="65"/>
+      <c r="U5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63" t="s">
+      <c r="V5" s="65"/>
+      <c r="W5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63" t="s">
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Z5" s="64"/>
+      <c r="Z5" s="66"/>
     </row>
     <row r="6" spans="1:26" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="38"/>
@@ -2476,7 +2476,7 @@
       <c r="Z13" s="15"/>
     </row>
     <row r="14" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="60" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="22"/>
@@ -2530,7 +2530,7 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="58"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="22"/>
       <c r="C15" s="35" t="s">
         <v>9</v>
@@ -2582,7 +2582,7 @@
       <c r="Z15" s="15"/>
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="58"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="22"/>
       <c r="C16" s="35" t="s">
         <v>8</v>
@@ -2634,7 +2634,7 @@
       <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="58"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="22"/>
       <c r="C17" s="35" t="s">
         <v>7</v>
@@ -2686,7 +2686,7 @@
       <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A18" s="58"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="22"/>
       <c r="C18" s="35" t="s">
         <v>6</v>
@@ -2738,7 +2738,7 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="58"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="22"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -2766,7 +2766,7 @@
       <c r="Z19" s="15"/>
     </row>
     <row r="20" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="58"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="22"/>
       <c r="C20" s="32" t="s">
         <v>5</v>
@@ -2818,7 +2818,7 @@
       <c r="Z20" s="15"/>
     </row>
     <row r="21" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="58"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="22"/>
       <c r="C21" s="30" t="s">
         <v>4</v>
@@ -2870,7 +2870,7 @@
       <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A22" s="58"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="22"/>
       <c r="C22" s="28" t="s">
         <v>3</v>
@@ -2922,7 +2922,7 @@
       <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="58"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="22"/>
       <c r="C23" s="21" t="s">
         <v>2</v>
@@ -2974,7 +2974,7 @@
       <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A24" s="58"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="14"/>
       <c r="C24" s="13" t="s">
         <v>1</v>
@@ -3026,7 +3026,7 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A25" s="58"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3130,99 +3130,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="50" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
     </row>
     <row r="2" spans="1:26" s="49" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
     </row>
     <row r="3" spans="1:26" s="49" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
-      <c r="A4" s="65"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
@@ -3244,59 +3244,59 @@
       </c>
     </row>
     <row r="5" spans="1:26" s="46" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63" t="s">
+      <c r="H5" s="65"/>
+      <c r="I5" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63" t="s">
+      <c r="J5" s="65"/>
+      <c r="K5" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63" t="s">
+      <c r="L5" s="65"/>
+      <c r="M5" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63" t="s">
+      <c r="N5" s="65"/>
+      <c r="O5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63" t="s">
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63" t="s">
+      <c r="R5" s="65"/>
+      <c r="S5" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63" t="s">
+      <c r="T5" s="65"/>
+      <c r="U5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63" t="s">
+      <c r="V5" s="65"/>
+      <c r="W5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63" t="s">
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Z5" s="64"/>
+      <c r="Z5" s="66"/>
     </row>
     <row r="6" spans="1:26" s="39" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="65"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="45"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
@@ -3348,7 +3348,7 @@
       <c r="Z6" s="40"/>
     </row>
     <row r="7" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="65"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="22"/>
       <c r="C7" s="35" t="s">
         <v>18</v>
@@ -3400,7 +3400,7 @@
       <c r="Z7" s="15"/>
     </row>
     <row r="8" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="65"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="22"/>
       <c r="C8" s="35" t="s">
         <v>17</v>
@@ -3452,7 +3452,7 @@
       <c r="Z8" s="15"/>
     </row>
     <row r="9" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="65"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="22"/>
       <c r="C9" s="35" t="s">
         <v>16</v>
@@ -4366,93 +4366,93 @@
   <sheetData>
     <row r="1" spans="1:26" s="50" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="38"/>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
     </row>
     <row r="2" spans="1:26" s="49" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="38"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
     </row>
     <row r="3" spans="1:26" s="49" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="38"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="A4" s="38"/>
@@ -4478,55 +4478,55 @@
     </row>
     <row r="5" spans="1:26" s="46" customFormat="1" ht="34.5" customHeight="1">
       <c r="A5" s="38"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63" t="s">
+      <c r="H5" s="65"/>
+      <c r="I5" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63" t="s">
+      <c r="J5" s="65"/>
+      <c r="K5" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63" t="s">
+      <c r="L5" s="65"/>
+      <c r="M5" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63" t="s">
+      <c r="N5" s="65"/>
+      <c r="O5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63" t="s">
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63" t="s">
+      <c r="R5" s="65"/>
+      <c r="S5" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63" t="s">
+      <c r="T5" s="65"/>
+      <c r="U5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63" t="s">
+      <c r="V5" s="65"/>
+      <c r="W5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63" t="s">
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Z5" s="64"/>
+      <c r="Z5" s="66"/>
     </row>
     <row r="6" spans="1:26" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="38"/>
@@ -4945,7 +4945,7 @@
       <c r="Z13" s="15"/>
     </row>
     <row r="14" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="68" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="22"/>
@@ -4999,7 +4999,7 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="66"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="22"/>
       <c r="C15" s="35" t="s">
         <v>9</v>
@@ -5051,7 +5051,7 @@
       <c r="Z15" s="15"/>
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="66"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="22"/>
       <c r="C16" s="35" t="s">
         <v>8</v>
@@ -5103,7 +5103,7 @@
       <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="66"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="22"/>
       <c r="C17" s="35" t="s">
         <v>7</v>
@@ -5155,7 +5155,7 @@
       <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A18" s="66"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="22"/>
       <c r="C18" s="35" t="s">
         <v>6</v>
@@ -5207,7 +5207,7 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="66"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="22"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -5235,7 +5235,7 @@
       <c r="Z19" s="15"/>
     </row>
     <row r="20" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="66"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="22"/>
       <c r="C20" s="32" t="s">
         <v>5</v>
@@ -5287,7 +5287,7 @@
       <c r="Z20" s="15"/>
     </row>
     <row r="21" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="66"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="22"/>
       <c r="C21" s="30" t="s">
         <v>4</v>
@@ -5339,7 +5339,7 @@
       <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A22" s="66"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="22"/>
       <c r="C22" s="28" t="s">
         <v>3</v>
@@ -5391,7 +5391,7 @@
       <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="66"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="22"/>
       <c r="C23" s="21" t="s">
         <v>2</v>
@@ -5443,7 +5443,7 @@
       <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A24" s="66"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="14"/>
       <c r="C24" s="13" t="s">
         <v>1</v>
@@ -5495,7 +5495,7 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A25" s="66"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
       <c r="D25" s="53"/>
@@ -5561,6 +5561,74 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">4XQ4D5TRQRHF-1623496119-511</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">
+      <Url>https://stats.mom.gov.sg/_layouts/DocIdRedir.aspx?ID=4XQ4D5TRQRHF-1623496119-511</Url>
+      <Description>4XQ4D5TRQRHF-1623496119-511</Description>
+    </_dlc_DocIdUrl>
+    <_dlc_DocIdPersistId xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">false</_dlc_DocIdPersistId>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061D1B60B48AE2C4381B419F34A85A18B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b8f4c4eb7c0a6ed6c0ddc723c58efda0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5775c44-5034-46ee-b1b0-8650967f43ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cab69d6e76fd2b3e146ab9f966a16f43" ns2:_="">
     <xsd:import namespace="e5775c44-5034-46ee-b1b0-8650967f43ea"/>
@@ -5705,75 +5773,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3979E0C-E62C-4B9B-98F3-085F9171A140}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">4XQ4D5TRQRHF-1623496119-511</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">
-      <Url>https://stats.mom.gov.sg/_layouts/DocIdRedir.aspx?ID=4XQ4D5TRQRHF-1623496119-511</Url>
-      <Description>4XQ4D5TRQRHF-1623496119-511</Description>
-    </_dlc_DocIdUrl>
-    <_dlc_DocIdPersistId xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">false</_dlc_DocIdPersistId>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76BBE1EA-6CC4-47A5-A5C5-0A1C4044D58F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e5775c44-5034-46ee-b1b0-8650967f43ea"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E98F1246-1533-40E8-8E8E-B2B941939BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{384F9E99-FCCA-402F-B31F-EE356B8400C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5789,30 +5815,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E98F1246-1533-40E8-8E8E-B2B941939BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76BBE1EA-6CC4-47A5-A5C5-0A1C4044D58F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e5775c44-5034-46ee-b1b0-8650967f43ea"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3979E0C-E62C-4B9B-98F3-085F9171A140}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>